--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223694.0749656047</v>
+        <v>223117.8776257341</v>
       </c>
     </row>
     <row r="7">
@@ -23990,7 +23990,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J20" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="C2" t="n">
         <v>75255.18387201248</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="F2" t="n">
-        <v>76373.61126414366</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="G2" t="n">
-        <v>76373.61126414366</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="H2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="I2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="J2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="K2" t="n">
         <v>76373.61126414368</v>
       </c>
       <c r="L2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="M2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="N2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="O2" t="n">
-        <v>76373.61126414371</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="P2" t="n">
-        <v>76373.61126414366</v>
+        <v>76373.61126414368</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="F4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="G4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="H4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="I4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="J4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="K4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="L4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="M4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="N4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="O4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="P4" t="n">
-        <v>35658.46607004399</v>
+        <v>35726.15620311847</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4071.284707916544</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="C6" t="n">
-        <v>4071.284707916529</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="D6" t="n">
-        <v>4071.284707916544</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="E6" t="n">
-        <v>21724.4327608131</v>
+        <v>21656.7426277386</v>
       </c>
       <c r="F6" t="n">
-        <v>40213.45345152767</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="G6" t="n">
-        <v>40213.45345152767</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="H6" t="n">
-        <v>40213.4534515277</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="I6" t="n">
-        <v>40213.4534515277</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="J6" t="n">
-        <v>40213.4534515277</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="K6" t="n">
-        <v>40213.45345152768</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="L6" t="n">
-        <v>40213.4534515277</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="M6" t="n">
-        <v>40213.4534515277</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="N6" t="n">
-        <v>40213.4534515277</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="O6" t="n">
-        <v>40213.45345152771</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="P6" t="n">
-        <v>40213.45345152767</v>
+        <v>40145.7633184532</v>
       </c>
     </row>
   </sheetData>
@@ -32461,19 +32461,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09251611130367558</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9474806248887679</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I20" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J20" t="n">
-        <v>7.852189301760344</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K20" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L20" t="n">
         <v>14.5997362345548</v>
@@ -32494,10 +32494,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>5.811515176679516</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S20" t="n">
-        <v>2.108210886332509</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T20" t="n">
         <v>0.4049892772318401</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0495004835149808</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H21" t="n">
         <v>0.4780704592104726</v>
@@ -32549,7 +32549,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J21" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K21" t="n">
         <v>7.993242550750212</v>
@@ -32567,7 +32567,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P21" t="n">
-        <v>9.452421277522957</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q21" t="n">
         <v>6.318693299210532</v>
@@ -32640,7 +32640,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N22" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O22" t="n">
         <v>5.865771705150827</v>
@@ -32658,7 +32658,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U22" t="n">
         <v>0.002263611411815345</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223117.8776257341</v>
+        <v>231546.7614395254</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5739672.253402798</v>
+        <v>9626478.252104811</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22630145.75001232</v>
+        <v>21817834.19407995</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3938151.932609795</v>
+        <v>4045905.601069308</v>
       </c>
     </row>
     <row r="11">
@@ -3983,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>153.807238032413</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="45">
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>549.202463503662</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>359.7826784871772</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>178.4661429351729</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K11" t="n">
-        <v>208.3214547517356</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L11" t="n">
-        <v>221.1666787354324</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M11" t="n">
-        <v>214.1012135983212</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N11" t="n">
-        <v>212.9051825663978</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O11" t="n">
-        <v>214.5102874732696</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P11" t="n">
-        <v>217.9290633046618</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>122.1609165114202</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K12" t="n">
-        <v>129.8481964236088</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L12" t="n">
-        <v>127.8064787429921</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M12" t="n">
-        <v>129.5917403577182</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N12" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>130.8188201934042</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P12" t="n">
-        <v>124.5219861368073</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.663080786811</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L13" t="n">
-        <v>128.7148261097669</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M13" t="n">
-        <v>132.4205420186164</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N13" t="n">
-        <v>121.3349826493852</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O13" t="n">
-        <v>132.590766746692</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P13" t="n">
-        <v>132.7088230120157</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K14" t="n">
-        <v>208.3214547517356</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L14" t="n">
-        <v>221.1666787354324</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M14" t="n">
-        <v>214.1012135983212</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N14" t="n">
-        <v>212.9051825663978</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O14" t="n">
-        <v>214.5102874732696</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P14" t="n">
-        <v>217.9290633046618</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114202</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K15" t="n">
-        <v>129.8481964236088</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L15" t="n">
-        <v>127.8064787429921</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M15" t="n">
-        <v>129.5917403577182</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N15" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>130.8188201934042</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P15" t="n">
-        <v>124.5219861368073</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.663080786811</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L16" t="n">
-        <v>128.7148261097669</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M16" t="n">
-        <v>132.4205420186164</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N16" t="n">
-        <v>121.3349826493852</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O16" t="n">
-        <v>132.590766746692</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P16" t="n">
-        <v>132.7088230120157</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K17" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L17" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M17" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N17" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O17" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P17" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L18" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M18" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P18" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L19" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M19" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N19" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O19" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P19" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K20" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L20" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M20" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N20" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O20" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P20" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K21" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L21" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M21" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P21" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L22" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M22" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N22" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O22" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P22" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K23" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L23" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M23" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N23" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O23" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P23" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K24" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L24" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M24" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P24" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L25" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M25" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N25" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O25" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P25" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K26" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L26" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M26" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O26" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P26" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K27" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L27" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M27" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P27" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L28" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M28" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N28" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O28" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P28" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K29" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L29" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M29" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O29" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P29" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K30" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L30" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M30" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P30" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L31" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M31" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N31" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O31" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P31" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K32" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L32" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M32" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O32" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P32" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K33" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L33" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M33" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P33" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L34" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M34" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N34" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O34" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P34" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K35" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L35" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M35" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N35" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O35" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P35" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K36" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L36" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M36" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P36" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L37" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M37" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N37" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O37" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P37" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K38" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L38" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M38" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N38" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O38" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P38" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K39" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L39" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M39" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P39" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L40" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M40" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N40" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O40" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P40" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K41" t="n">
-        <v>208.3214547517356</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L41" t="n">
-        <v>221.1666787354324</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M41" t="n">
-        <v>214.1012135983212</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N41" t="n">
-        <v>212.9051825663978</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O41" t="n">
-        <v>214.5102874732696</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P41" t="n">
-        <v>217.9290633046618</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>122.1609165114202</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K42" t="n">
-        <v>129.8481964236088</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L42" t="n">
-        <v>127.8064787429921</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M42" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>130.8188201934042</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P42" t="n">
-        <v>124.5219861368073</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.663080786811</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L43" t="n">
-        <v>128.7148261097669</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M43" t="n">
-        <v>132.4205420186164</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N43" t="n">
-        <v>121.3349826493852</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O43" t="n">
-        <v>132.590766746692</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P43" t="n">
-        <v>132.7088230120157</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>208.3214547517356</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>221.1666787354324</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>214.1012135983212</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>212.9051825663978</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>214.5102874732696</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>217.9290633046618</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>122.1609165114202</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K45" t="n">
-        <v>129.8481964236088</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>127.8064787429921</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>129.5917403577182</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>118.4674613291454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>130.8188201934042</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.5219861368073</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.663080786811</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L46" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>132.4205420186164</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N46" t="n">
-        <v>121.3349826493852</v>
+        <v>75.41988959484648</v>
       </c>
       <c r="O46" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2102214038314</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H11" t="n">
-        <v>338.5273214908784</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I11" t="n">
-        <v>206.909162189371</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644702</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2940166796957</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828964</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703757</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9381254702172</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H13" t="n">
-        <v>161.8582038473137</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2024705022108</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839145</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.6870224659892</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R13" t="n">
-        <v>175.4274210366964</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5273214908784</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I14" t="n">
-        <v>206.909162189371</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>144.0576027644702</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828964</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703757</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9381254702172</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H16" t="n">
-        <v>161.8582038473137</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022108</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839145</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.6870224659892</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R16" t="n">
-        <v>175.4274210366964</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S16" t="n">
-        <v>223.2933741908973</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H17" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I17" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J17" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S17" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H18" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I18" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S18" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T18" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H19" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I19" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J19" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K19" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R19" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S19" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T19" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H20" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I20" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J20" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S20" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T20" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H21" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I21" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S21" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T21" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H22" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I22" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J22" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K22" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R22" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S22" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T22" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H23" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I23" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J23" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S23" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T23" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H24" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I24" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S24" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T24" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,19 +24378,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H25" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I25" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J25" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K25" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R25" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S25" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T25" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H26" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I26" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J26" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S26" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T26" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H27" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I27" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S27" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T27" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,19 +24615,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H28" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I28" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J28" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K28" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R28" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S28" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T28" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H29" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I29" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J29" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S29" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T29" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H30" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I30" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S30" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T30" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,19 +24852,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H31" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I31" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J31" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K31" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R31" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S31" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T31" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H32" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I32" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J32" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S32" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T32" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H33" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I33" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S33" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T33" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,19 +25089,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H34" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I34" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J34" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K34" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R34" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S34" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T34" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H35" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I35" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J35" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S35" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H36" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I36" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S36" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T36" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,19 +25326,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H37" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I37" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J37" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K37" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R37" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S37" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T37" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H38" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I38" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J38" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S38" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H39" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I39" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S39" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T39" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,19 +25563,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H40" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I40" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J40" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K40" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R40" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S40" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T40" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.2102214038314</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H41" t="n">
-        <v>338.5273214908784</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I41" t="n">
-        <v>206.909162189371</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J41" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>144.0576027644702</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S41" t="n">
-        <v>206.9118586999128</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T41" t="n">
-        <v>222.6908602868995</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2940166796957</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H42" t="n">
-        <v>111.757373777286</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I42" t="n">
-        <v>87.69233988828964</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>97.08446202703757</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S42" t="n">
-        <v>170.7637213332854</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T42" t="n">
-        <v>199.9652070090748</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,19 +25800,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9494798159088</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H43" t="n">
-        <v>161.8582038473137</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I43" t="n">
-        <v>154.2024705022108</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J43" t="n">
-        <v>90.42516245839145</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K43" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.6870224659892</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R43" t="n">
-        <v>175.4274210366964</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S43" t="n">
-        <v>223.2933741908973</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T43" t="n">
-        <v>227.7682732010226</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25871,22 +25873,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>228.1231320398487</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G44" t="n">
-        <v>415.2102214038314</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H44" t="n">
-        <v>338.5273214908784</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I44" t="n">
-        <v>206.909162189371</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J44" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>206.9118586999128</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T44" t="n">
-        <v>222.6908602868995</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3382516189322</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2940166796957</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H45" t="n">
-        <v>111.757373777286</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I45" t="n">
-        <v>87.69233988828964</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>97.08446202703757</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S45" t="n">
-        <v>170.7637213332854</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T45" t="n">
-        <v>199.9652070090748</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9381254702172</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738304</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9494798159088</v>
+        <v>5.172480200465515</v>
       </c>
       <c r="H46" t="n">
-        <v>161.8582038473137</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I46" t="n">
-        <v>154.2024705022108</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J46" t="n">
-        <v>90.42516245839145</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K46" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>175.4274210366964</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S46" t="n">
-        <v>223.2933741908973</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T46" t="n">
-        <v>227.7682732010226</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3167657450791</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>341220.6012596932</v>
+        <v>342396.8318148071</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>341220.6012596932</v>
+        <v>342396.8318148071</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341220.6012596932</v>
+        <v>342505.1976931042</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341220.6012596932</v>
+        <v>510124.8236617564</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>75255.18387201248</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="E2" t="n">
-        <v>76373.61126414368</v>
+        <v>81666.69129627488</v>
       </c>
       <c r="F2" t="n">
-        <v>76373.61126414368</v>
+        <v>81666.69129627485</v>
       </c>
       <c r="G2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="H2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="I2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="J2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="K2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="L2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="M2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="N2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="O2" t="n">
-        <v>76373.61126414368</v>
+        <v>82284.93765545895</v>
       </c>
       <c r="P2" t="n">
-        <v>76373.61126414368</v>
+        <v>126309.1315085759</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18489.0206907146</v>
+        <v>188622.9869705381</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>20227.37732676133</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>235794.7827876949</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>35726.15620311847</v>
+        <v>15730.06662970748</v>
       </c>
       <c r="F4" t="n">
-        <v>35726.15620311847</v>
+        <v>15730.06662970748</v>
       </c>
       <c r="G4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="H4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="I4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="J4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="K4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="L4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="M4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="N4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="O4" t="n">
-        <v>35726.15620311847</v>
+        <v>13365.44707126814</v>
       </c>
       <c r="P4" t="n">
-        <v>35726.15620311847</v>
+        <v>5050.910724493875</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>501.6917425720072</v>
+        <v>5118.204831146673</v>
       </c>
       <c r="F5" t="n">
-        <v>501.6917425720072</v>
+        <v>5118.204831146673</v>
       </c>
       <c r="G5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="H5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="I5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="J5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="K5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="L5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="M5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="N5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="O5" t="n">
-        <v>501.6917425720072</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="P5" t="n">
-        <v>501.6917425720072</v>
+        <v>23358.20041161357</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>3999.991936006241</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006241</v>
+        <v>3999.991936006256</v>
       </c>
       <c r="E6" t="n">
-        <v>21656.7426277386</v>
+        <v>-127804.5671351174</v>
       </c>
       <c r="F6" t="n">
-        <v>40145.7633184532</v>
+        <v>60818.4198354207</v>
       </c>
       <c r="G6" t="n">
-        <v>40145.7633184532</v>
+        <v>43006.75190054876</v>
       </c>
       <c r="H6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="I6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="J6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="K6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="L6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="M6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="N6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="O6" t="n">
-        <v>40145.7633184532</v>
+        <v>63234.12922731008</v>
       </c>
       <c r="P6" t="n">
-        <v>40145.7633184532</v>
+        <v>-137894.7624152265</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678932</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678932</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="G3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="H3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="I3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="J3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="K3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="L3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="M3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="N3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="O3" t="n">
-        <v>23.01338268678932</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="P3" t="n">
-        <v>23.01338268678932</v>
+        <v>548.4699409129046</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678932</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>26.01635439147063</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>287.6735483954398</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887678</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381034957</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760343</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324493</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L11" t="n">
-        <v>14.5997362345548</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895154</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019311</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841718</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060769</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679517</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S11" t="n">
-        <v>2.10821088633251</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104726</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I12" t="n">
-        <v>1.704292963125436</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246498</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K12" t="n">
-        <v>7.993242550750212</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74790103688213</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M12" t="n">
-        <v>12.54229356430018</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N12" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77742425104019</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277522959</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210532</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605564</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523841</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259011</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047526</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J13" t="n">
-        <v>2.93401765828132</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166679</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471354</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988658</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815847948</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150827</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131885</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705187</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473114</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7232238460750018</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887678</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381034957</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760343</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324493</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L14" t="n">
-        <v>14.5997362345548</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895154</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019311</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841718</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060769</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679517</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S14" t="n">
-        <v>2.10821088633251</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104726</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125436</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246498</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750212</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688213</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54229356430018</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N15" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104019</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277522959</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210532</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605564</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523841</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259011</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047526</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J16" t="n">
-        <v>2.93401765828132</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166679</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471354</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988658</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815847948</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150827</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131885</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705187</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473114</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7232238460750018</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I17" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J17" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K17" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L17" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M17" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N17" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O17" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P17" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R17" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S17" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I18" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J18" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K18" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L18" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M18" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P18" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R18" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I19" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J19" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K19" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L19" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M19" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N19" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O19" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P19" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R19" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I20" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J20" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K20" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L20" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M20" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N20" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O20" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P20" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R20" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S20" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U20" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I21" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J21" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K21" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L21" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M21" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P21" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R21" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I22" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J22" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K22" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L22" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M22" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N22" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O22" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P22" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R22" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I23" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J23" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K23" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L23" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M23" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N23" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O23" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P23" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R23" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S23" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U23" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I24" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J24" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K24" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L24" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M24" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P24" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R24" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I25" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J25" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K25" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L25" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M25" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N25" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O25" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P25" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R25" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I26" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J26" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K26" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L26" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M26" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N26" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O26" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P26" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R26" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S26" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U26" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I27" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J27" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K27" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L27" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M27" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P27" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R27" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I28" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J28" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K28" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L28" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M28" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N28" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O28" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P28" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R28" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I29" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J29" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K29" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L29" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M29" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N29" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O29" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P29" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R29" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S29" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U29" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I30" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J30" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K30" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L30" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M30" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P30" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R30" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I31" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J31" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K31" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L31" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M31" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N31" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O31" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P31" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R31" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U31" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I32" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J32" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K32" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L32" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M32" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N32" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O32" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P32" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R32" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S32" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U32" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I33" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J33" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K33" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L33" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M33" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P33" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R33" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I34" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J34" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K34" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L34" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M34" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N34" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O34" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P34" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R34" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I35" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J35" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K35" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L35" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M35" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N35" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O35" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P35" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R35" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S35" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U35" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I36" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J36" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K36" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L36" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M36" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P36" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R36" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I37" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J37" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K37" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L37" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M37" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N37" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O37" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P37" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R37" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U37" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I38" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J38" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K38" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L38" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M38" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N38" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O38" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P38" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R38" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S38" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I39" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J39" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K39" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L39" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M39" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P39" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R39" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I40" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J40" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K40" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L40" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M40" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N40" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O40" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P40" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R40" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0925161113036756</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9474806248887678</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I41" t="n">
-        <v>3.566727381034957</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J41" t="n">
-        <v>7.852189301760343</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76839629324493</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L41" t="n">
-        <v>14.5997362345548</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M41" t="n">
-        <v>16.24501962895154</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N41" t="n">
-        <v>16.50788103019311</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O41" t="n">
-        <v>15.58792394841718</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P41" t="n">
-        <v>13.30393245060769</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R41" t="n">
-        <v>5.811515176679517</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S41" t="n">
-        <v>2.10821088633251</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4049892772318401</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U41" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4780704592104726</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I42" t="n">
-        <v>1.704292963125436</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J42" t="n">
-        <v>4.676710155246498</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K42" t="n">
-        <v>7.993242550750212</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L42" t="n">
-        <v>10.74790103688213</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M42" t="n">
-        <v>12.54229356430018</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>12.87425075418792</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>11.77742425104019</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P42" t="n">
-        <v>9.452421277522959</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.318693299210532</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R42" t="n">
-        <v>3.073372125605564</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9194497705523841</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1995216857467866</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3689686601259011</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I43" t="n">
-        <v>1.248004425047526</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J43" t="n">
-        <v>2.93401765828132</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K43" t="n">
-        <v>4.821492307166679</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L43" t="n">
-        <v>6.169850171471354</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M43" t="n">
-        <v>6.505241928988658</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N43" t="n">
-        <v>6.350561815847948</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O43" t="n">
-        <v>5.865771705150827</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P43" t="n">
-        <v>5.019181037131885</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.475020785705187</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R43" t="n">
-        <v>1.865970340473114</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7232238460750018</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1773162272588685</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U43" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0925161113036756</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9474806248887678</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I44" t="n">
-        <v>3.566727381034957</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J44" t="n">
-        <v>7.852189301760343</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K44" t="n">
-        <v>11.76839629324493</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L44" t="n">
-        <v>14.5997362345548</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M44" t="n">
-        <v>16.24501962895154</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N44" t="n">
-        <v>16.50788103019311</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O44" t="n">
-        <v>15.58792394841718</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P44" t="n">
-        <v>13.30393245060769</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R44" t="n">
-        <v>5.811515176679517</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S44" t="n">
-        <v>2.10821088633251</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4049892772318401</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04950048351498081</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4780704592104726</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I45" t="n">
-        <v>1.704292963125436</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J45" t="n">
-        <v>4.676710155246498</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K45" t="n">
-        <v>7.993242550750212</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L45" t="n">
-        <v>10.74790103688213</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M45" t="n">
-        <v>12.54229356430018</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N45" t="n">
-        <v>12.87425075418792</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O45" t="n">
-        <v>11.77742425104019</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P45" t="n">
-        <v>9.452421277522959</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.318693299210532</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R45" t="n">
-        <v>3.073372125605564</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9194497705523841</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1995216857467866</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3689686601259011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I46" t="n">
-        <v>1.248004425047526</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J46" t="n">
-        <v>2.93401765828132</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K46" t="n">
-        <v>4.821492307166679</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L46" t="n">
-        <v>6.169850171471354</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M46" t="n">
-        <v>6.505241928988658</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N46" t="n">
-        <v>6.350561815847948</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O46" t="n">
-        <v>5.865771705150827</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P46" t="n">
-        <v>5.019181037131885</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.475020785705187</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R46" t="n">
-        <v>1.865970340473114</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7232238460750018</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1773162272588685</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
